--- a/stage_1/Formulas_Functions/Calculating_with_SUM_function.xlsx
+++ b/stage_1/Formulas_Functions/Calculating_with_SUM_function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Beginners/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{0322525B-7043-454A-BDE6-D5F3E57AF6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{248D700A-EE39-4B77-BDDB-E6FC84AE85E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7D4585-FEBD-41D2-99E7-41DDA34BDB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
   <sheets>
     <sheet name="SUM Function" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -144,7 +144,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -473,20 +473,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F30019-4F52-4BA0-AE58-453B45939140}">
   <dimension ref="B1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <v>2021</v>
@@ -501,7 +501,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -535,7 +535,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -552,7 +552,7 @@
         <v>5351</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -569,7 +569,7 @@
         <v>5663</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -586,7 +586,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -603,7 +603,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -620,7 +620,7 @@
         <v>4817</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -637,7 +637,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -654,7 +654,7 @@
         <v>5898</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -671,7 +671,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -688,7 +688,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -705,14 +705,26 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="3">
+        <f xml:space="preserve"> SUM(C3:C14)</f>
+        <v>56449</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(D3:D14)</f>
+        <v>50370</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUM(E3:E14)</f>
+        <v>54510</v>
+      </c>
+      <c r="F15" s="3">
+        <f>SUM(F3:F14)</f>
+        <v>52900</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/stage_1/Formulas_Functions/Calculating_with_SUM_function.xlsx
+++ b/stage_1/Formulas_Functions/Calculating_with_SUM_function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7D4585-FEBD-41D2-99E7-41DDA34BDB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE75F25D-E2EA-447F-8FE8-D754CB5F2E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="B1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,5 +729,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C15:F15" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>